--- a/data/tiny_new.xlsx
+++ b/data/tiny_new.xlsx
@@ -441,62 +441,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.013934683365126451</t>
+          <t>Predicted Cluster for h = 0.0139</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.04180405009537935</t>
+          <t>Predicted Cluster for h = 0.0418</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.06967341682563226</t>
+          <t>Predicted Cluster for h = 0.0697</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.09754278355588517</t>
+          <t>Predicted Cluster for h = 0.0975</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.12541215028613806</t>
+          <t>Predicted Cluster for h = 0.1254</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.15328151701639095</t>
+          <t>Predicted Cluster for h = 0.1533</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.18115088374664384</t>
+          <t>Predicted Cluster for h = 0.1812</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.20902025047689674</t>
+          <t>Predicted Cluster for h = 0.209</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.23688961720714963</t>
+          <t>Predicted Cluster for h = 0.2369</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.26475898393740255</t>
+          <t>Predicted Cluster for h = 0.2648</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.29262835066765547</t>
+          <t>Predicted Cluster for h = 0.2926</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Cluster for h = 0.3204977173979084</t>
+          <t>Predicted Cluster for h = 0.3205</t>
         </is>
       </c>
     </row>
